--- a/테스트과목.xlsx
+++ b/테스트과목.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="11430" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28575" windowHeight="11460" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="출제계획" sheetId="1" r:id="rId4"/>
@@ -27,42 +27,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
+  <x:si>
+    <x:t>박민수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해독 작용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 20, 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>④</x:t>
+  </x:si>
+  <x:si>
+    <x:t>③</x:t>
+  </x:si>
+  <x:si>
+    <x:t>⑤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간경변의 주요 원인이 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 아세트아미노펜
+② 이부프로펜
+③ 메토트렉세이트
+④ 시메티딘
+⑤ 비타민 D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간질환 예방을 위한 생활습관 개선 방안을 서술하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22, 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 중 간질환과 관련된 약물이 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약물의 대사 속도에 영향을 주지 않는 요인은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간질환의 일반적인 증상 중 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 22, 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22, 21, 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 22, 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간경변은 간세포의 손상과 섬유화로 인해 발생하며, 이로 인해 간의 기능이 저하됩니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금주, 규칙적인 운동, 건강한 식습관 유지, 정기적인 건강 검진 등이 있습니다.</x:t>
+  </x:si>
   <x:si>
     <x:t>5.2 알레르기 ★</x:t>
   </x:si>
   <x:si>
+    <x:t>3.11 효천증</x:t>
+  </x:si>
+  <x:si>
     <x:t>4.2 기관지확장증</x:t>
   </x:si>
   <x:si>
-    <x:t>3.11 효천증</x:t>
+    <x:t>3.16 언어질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.2 알레르기</x:t>
   </x:si>
   <x:si>
     <x:t>4.5 COPD</x:t>
   </x:si>
   <x:si>
+    <x:t>3.18 진액과 한증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.4 천식 ★</x:t>
+  </x:si>
+  <x:si>
     <x:t>3.17 성음질환 ★</x:t>
   </x:si>
   <x:si>
-    <x:t>5.2 알레르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.18 진액과 한증</x:t>
+    <x:t>4.7 흉막질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.10 폐수종</x:t>
   </x:si>
   <x:si>
     <x:t>3.17 성음질환</x:t>
   </x:si>
   <x:si>
-    <x:t>3.16 언어질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.4 천식 ★</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.7 흉막질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.10 폐수종</x:t>
+    <x:t>&lt;족보 페이지 또는 해설&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.9 간질성 폐질환 ★</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p.7R(19 족보 기준)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.3 폐렴 및 폐농양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1 급성 기도 감염</x:t>
   </x:si>
   <x:si>
     <x:t>① 개인적인 차이가 존재한다
@@ -72,176 +145,197 @@
 ⑤ 약물대사에 관여하는 미립효소는 선척적으로 결정되어 있다</x:t>
   </x:si>
   <x:si>
-    <x:t>패스파인더가 버프가 필요한 이유에 대해 서술하시오.</x:t>
-  </x:si>
-  <x:si>
     <x:t>중독성 간질환의 간접손상에 대한 설명으로 옳지 않은 것을 고르시오.</x:t>
   </x:si>
   <x:si>
-    <x:t>김고씨</x:t>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1회차</x:t>
   </x:si>
   <x:si>
     <x:t>교수님</x:t>
   </x:si>
   <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
     <x:t>4회차</x:t>
   </x:si>
   <x:si>
+    <x:t>2회차</x:t>
+  </x:si>
+  <x:si>
     <x:t>5회차</x:t>
   </x:si>
   <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
     <x:t>시험</x:t>
   </x:si>
   <x:si>
     <x:t>단답형</x:t>
   </x:si>
   <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주관식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1회차</x:t>
+    <x:t>②</x:t>
+  </x:si>
+  <x:si>
+    <x:t>★</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>객관식</x:t>
   </x:si>
   <x:si>
     <x:t>3회차</x:t>
   </x:si>
   <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>★</x:t>
-  </x:si>
-  <x:si>
-    <x:t>객관식</x:t>
-  </x:si>
-  <x:si>
     <x:t>신유형</x:t>
   </x:si>
   <x:si>
-    <x:t>청동기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>②</x:t>
-  </x:si>
-  <x:si>
     <x:t>김장훈</x:t>
   </x:si>
   <x:si>
-    <x:t>이게 청동기가 아니면 안됩니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;족보 페이지 또는 해설&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23, 22, 21, 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p.7R(19 족보 기준)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.9 간질성 폐질환 ★</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.3 폐렴 및 폐농양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1 급성 기도 감염</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 그림에서 설명하는 시대를 적으시오.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너가 해보세요 제발 딜이 이게 말이되냐?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;정답&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.2 폐상증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기말고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;구현중&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.4 천식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23, 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#E2EFDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#FFF2CC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.7 기병</x:t>
+    <x:t>서술형</x:t>
   </x:si>
   <x:si>
     <x:t>검수용
 번호</x:t>
   </x:si>
   <x:si>
+    <x:t>#FCE4D6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.8 감모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;문제&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중간고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.8 폐암</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.6 폐결핵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도 上</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1 폐병증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도 下</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;제시그림&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;출제 년도&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.10 천증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.9 해수</x:t>
+  </x:si>
+  <x:si>
     <x:t>3.4 담음</x:t>
   </x:si>
   <x:si>
-    <x:t>#FCE4D6</x:t>
+    <x:t>난이도 中</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.7 기병</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;답가지&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>난이도 中</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.6 폐결핵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1 폐병증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.8 폐암</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.8 감모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.9 해수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도 上</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중간고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;문제&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;출제 년도&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도 下</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.10 천증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;제시그림&gt;</x:t>
+    <x:t>3.2 폐상증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#E2EFDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#FFF2CC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기말고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;정답&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.4 천식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간암의 주요 원인 중 하나를 쓰시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간경변의 병리학적 기전을 설명하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 알코올 중독
+② 바이러스 감염
+③ 약물 남용
+④ 고혈압
+⑤ 지방간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B형 간염 바이러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 피로
+② 식욕부진
+③ 체중 증가
+④ 간비대
+⑤ 황달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 유전자 변이
+② 약물 상호작용
+③ 연령
+④ 성별
+⑤ 혈액형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간의 주요 기능 중 하나를 쓰시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알코올성 간질환의 진행 과정을 단계별로 설명하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지방간 → 알코올성 간염 → 간경변 순으로 진행됩니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24, 23, 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장영희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김영철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정수진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 18</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -328,26 +422,6 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
-          <x:name val="NS Bold"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="NS Bold"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
           <x:name val="NS Regular"/>
           <x:sz val="9"/>
           <x:color rgb="ff000000"/>
@@ -361,6 +435,26 @@
         <x:font>
           <x:name val="NS Regular"/>
           <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="NS Bold"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="NS Bold"/>
+          <x:sz val="10"/>
           <x:color rgb="ff000000"/>
         </x:font>
       </mc:Fallback>
@@ -807,7 +901,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="71">
+  <x:cellXfs count="74">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1321,19 +1415,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1454,13 +1535,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1488,6 +1569,58 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1500,7 +1633,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1530,7 +1663,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14973300" y="19545300"/>
+          <a:off x="14973300" y="22498050"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1567,7 +1700,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14973300" y="21431250"/>
+          <a:off x="14973300" y="24384000"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1890,52 +2023,52 @@
     <x:row r="2" spans="2:10" ht="18.60000000000000142109">
       <x:c r="B2" s="2"/>
       <x:c r="C2" s="35" t="s">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D2" s="35" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E2" s="35" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F2" s="35" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G2" s="36" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I2" s="69" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J2" s="70"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I2" s="68" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J2" s="69"/>
     </x:row>
     <x:row r="3" spans="2:11" ht="18.60000000000000142109">
       <x:c r="B3" s="34">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="40" t="s">
-        <x:v>52</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D3" s="40" t="s">
-        <x:v>52</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E3" s="40" t="s">
-        <x:v>52</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F3" s="41" t="s">
-        <x:v>52</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G3" s="42" t="s">
-        <x:v>52</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I3" s="3">
         <x:v>90</x:v>
       </x:c>
       <x:c r="J3" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:11" ht="18.60000000000000142109">
@@ -1943,28 +2076,28 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="40" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="40" t="s">
-        <x:v>7</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E4" s="41" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="43" t="s">
-        <x:v>4</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="42" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I4" s="5">
         <x:v>70</x:v>
       </x:c>
       <x:c r="J4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:11" ht="19.19999999999999928946">
@@ -1972,28 +2105,28 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="41" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="40" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E5" s="40" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="41" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G5" s="42" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I5" s="7">
         <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:7" ht="19.19999999999999928946">
@@ -2001,19 +2134,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="40" t="s">
-        <x:v>54</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="41" t="s">
-        <x:v>54</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E6" s="41" t="s">
-        <x:v>54</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F6" s="41" t="s">
-        <x:v>54</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G6" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:9" ht="18.60000000000000142109">
@@ -2021,22 +2154,22 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="40" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D7" s="40" t="s">
-        <x:v>45</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E7" s="41" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F7" s="41" t="s">
-        <x:v>45</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G7" s="44" t="s">
-        <x:v>45</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I7" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:9" ht="19.19999999999999928946">
@@ -2044,22 +2177,22 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D8" s="41" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E8" s="40" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F8" s="40" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G8" s="45" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I8" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:7" ht="18.60000000000000142109">
@@ -2067,19 +2200,19 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D9" s="43" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="40" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F9" s="41" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G9" s="42" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:7" ht="18.60000000000000142109">
@@ -2087,19 +2220,19 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D10" s="41" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E10" s="43" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F10" s="41" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G10" s="44" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:7" ht="18.60000000000000142109">
@@ -2107,19 +2240,19 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D11" s="43" t="s">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="41" t="s">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F11" s="40" t="s">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G11" s="42" t="s">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:7" ht="18.60000000000000142109">
@@ -2127,19 +2260,19 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C12" s="41" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D12" s="40" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E12" s="40" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F12" s="43" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G12" s="42" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:7" ht="18.60000000000000142109">
@@ -2147,19 +2280,19 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="40" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D13" s="41" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E13" s="41" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F13" s="43" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="44" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:7" ht="18.60000000000000142109">
@@ -2167,19 +2300,19 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C14" s="43" t="s">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D14" s="40" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="41" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F14" s="40" t="s">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G14" s="42" t="s">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:7" ht="18.60000000000000142109">
@@ -2187,19 +2320,19 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C15" s="41" t="s">
-        <x:v>48</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D15" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E15" s="40" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F15" s="41" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G15" s="44" t="s">
-        <x:v>9</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:7" ht="18.60000000000000142109">
@@ -2207,19 +2340,19 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C16" s="40" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D16" s="41" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E16" s="43" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="F16" s="43" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G16" s="44" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:7" ht="19.19999999999999928946">
@@ -2227,16 +2360,16 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C17" s="46" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D17" s="47" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="E17" s="46" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F17" s="46" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G17" s="54" t="s">
         <x:v>60</x:v>
@@ -2430,7 +2563,7 @@
   <x:mergeCells count="1">
     <x:mergeCell ref="I2:J2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2444,16 +2577,16 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="2" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <x:selection pane="topRight" activeCell="J7" activeCellId="0" sqref="J7:J7"/>
+      <x:selection pane="topRight" activeCell="R5" activeCellId="0" sqref="R5:R5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="11.09765625" style="12" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="25.09765625" style="33" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="26.09765625" style="64" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="10.796875" style="61" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="15.5" style="61" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="26.09765625" style="63" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.796875" style="60" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="15.5" style="60" bestFit="1" customWidth="1"/>
     <x:col min="6" max="6" width="55.3984375" style="28" customWidth="1"/>
     <x:col min="7" max="7" width="52.5" style="29" customWidth="1"/>
     <x:col min="8" max="8" width="22" style="29" hidden="1" customWidth="1"/>
@@ -2461,44 +2594,44 @@
     <x:col min="10" max="10" width="22" style="48" customWidth="1"/>
     <x:col min="11" max="11" width="21.19921875" style="20" bestFit="1" customWidth="1"/>
     <x:col min="12" max="12" width="24.19921875" style="48" customWidth="1"/>
-    <x:col min="13" max="13" width="8.796875" style="58"/>
+    <x:col min="13" max="13" width="8.796875" style="57"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13" ht="44.54999999999999715783" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>27</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B1" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C1" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D1" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1" s="17" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="F1" s="15" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G1" s="16" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H1" s="58"/>
+      <x:c r="I1" s="58"/>
+      <x:c r="J1" s="49" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G1" s="16" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H1" s="59"/>
-      <x:c r="I1" s="59"/>
-      <x:c r="J1" s="49" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="K1" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L1" s="49" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M1" s="56" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13" ht="59.75">
@@ -2506,67 +2639,67 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="33" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C2" s="63" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D2" s="60" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E2" s="60" t="s">
-        <x:v>49</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C2" s="62" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D2" s="59" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E2" s="59" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F2" s="25" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G2" s="26" t="s">
-        <x:v>12</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H2" s="26"/>
       <x:c r="I2" s="27"/>
       <x:c r="J2" s="19"/>
-      <x:c r="K2" s="18" t="s">
-        <x:v>33</x:v>
+      <x:c r="K2" s="70" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M2" s="57" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:13">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13" ht="23.89999999999999857891">
       <x:c r="A3" s="11">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="33" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C3" s="63" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D3" s="60" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E3" s="60" t="s">
-        <x:v>37</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C3" s="62" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D3" s="59" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3" s="59" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="25" t="s">
-        <x:v>13</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G3" s="26"/>
       <x:c r="H3" s="19"/>
       <x:c r="I3" s="18" t="s">
-        <x:v>33</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J3" s="19"/>
-      <x:c r="K3" s="57" t="s">
-        <x:v>43</x:v>
+      <x:c r="K3" s="71" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L3" s="19"/>
       <x:c r="M3" s="57" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -2574,66 +2707,252 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="33" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C4" s="63" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D4" s="60" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E4" s="60">
-        <x:v>24</x:v>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C4" s="62" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D4" s="59" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E4" s="59" t="s">
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F4" s="25" t="s">
-        <x:v>42</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G4" s="26"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="18" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J4" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="K4" s="57" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="L4" s="19" t="s">
-        <x:v>35</x:v>
-      </x:c>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J4" s="19"/>
+      <x:c r="K4" s="71" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L4" s="19"/>
       <x:c r="M4" s="57" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:11">
-      <x:c r="A5" s="11"/>
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13" ht="59.75">
+      <x:c r="A5" s="11">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="33" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C5" s="63" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D5" s="60" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E5" s="60" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F5" s="28" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G5" s="29" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I5" s="30" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="J5" s="23"/>
-      <x:c r="K5" s="22"/>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="11"/>
+      <x:c r="K5" s="72" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M5" s="57" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13" ht="59.75">
+      <x:c r="A6" s="11">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="33" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C6" s="63" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D6" s="60" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E6" s="60" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="28" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G6" s="29" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I6" s="30" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="J6" s="23"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="11"/>
+      <x:c r="K6" s="73" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M6" s="57" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13" ht="59.75">
+      <x:c r="A7" s="11">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="33" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C7" s="63" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D7" s="60" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E7" s="60">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F7" s="28" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="29" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="30" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="J7" s="23"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="11"/>
+      <x:c r="K7" s="73" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M7" s="57" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13" ht="59.75">
+      <x:c r="A8" s="11">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="33" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C8" s="63" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D8" s="60" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E8" s="60">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F8" s="28" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G8" s="29" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I8" s="30" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="J8" s="50"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="11"/>
+      <x:c r="K8" s="73" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M8" s="57" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13" ht="47.79999999999999715783">
+      <x:c r="A9" s="11">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="33" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C9" s="63" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D9" s="60" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E9" s="60" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F9" s="28" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I9" s="30" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="J9" s="50"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="11"/>
+      <x:c r="K9" s="73" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M9" s="57" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13" ht="35.85000000000000142109">
+      <x:c r="A10" s="11">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B10" s="33" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C10" s="63" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D10" s="60" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E10" s="60" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F10" s="28" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I10" s="30" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="J10" s="50"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="11"/>
+      <x:c r="K10" s="73" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M10" s="57" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="11">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="33" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C11" s="63" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D11" s="60" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E11" s="60" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F11" s="28" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I11" s="30" t="s">
+        <x:v>83</x:v>
+      </x:c>
       <x:c r="J11" s="50"/>
+      <x:c r="K11" s="73" t="s">
+        <x:v>83</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="11"/>
@@ -2653,7 +2972,7 @@
     </x:row>
     <x:row r="17" spans="1:12">
       <x:c r="A17" s="11"/>
-      <x:c r="L17" s="67"/>
+      <x:c r="L17" s="66"/>
     </x:row>
     <x:row r="18" spans="1:1">
       <x:c r="A18" s="11"/>
@@ -2700,11 +3019,11 @@
       <x:c r="J32" s="50"/>
     </x:row>
     <x:row r="33" spans="3:3">
-      <x:c r="C33" s="65"/>
+      <x:c r="C33" s="64"/>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="11"/>
-      <x:c r="C34" s="65"/>
+      <x:c r="C34" s="64"/>
     </x:row>
     <x:row r="35" spans="1:10">
       <x:c r="A35" s="11"/>
@@ -2712,7 +3031,7 @@
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="11"/>
-      <x:c r="C36" s="65"/>
+      <x:c r="C36" s="64"/>
     </x:row>
     <x:row r="37" spans="1:1">
       <x:c r="A37" s="11"/>
@@ -2731,7 +3050,7 @@
       <x:c r="J41" s="21"/>
     </x:row>
     <x:row r="42" spans="3:3">
-      <x:c r="C42" s="65"/>
+      <x:c r="C42" s="64"/>
     </x:row>
     <x:row r="46" spans="1:1">
       <x:c r="A46" s="11"/>
@@ -2750,7 +3069,7 @@
     </x:row>
     <x:row r="53" spans="1:6">
       <x:c r="A53" s="11"/>
-      <x:c r="E53" s="66"/>
+      <x:c r="E53" s="65"/>
       <x:c r="F53" s="55"/>
     </x:row>
     <x:row r="54" spans="1:1">
@@ -2772,11 +3091,11 @@
       <x:c r="A59" s="11"/>
     </x:row>
     <x:row r="62" spans="12:12">
-      <x:c r="L62" s="67"/>
+      <x:c r="L62" s="66"/>
     </x:row>
     <x:row r="64" spans="1:12">
       <x:c r="A64" s="11"/>
-      <x:c r="L64" s="67"/>
+      <x:c r="L64" s="66"/>
     </x:row>
     <x:row r="65" spans="1:10">
       <x:c r="A65" s="11"/>
@@ -2806,11 +3125,11 @@
       <x:c r="J72" s="50"/>
     </x:row>
     <x:row r="74" spans="12:12">
-      <x:c r="L74" s="68"/>
+      <x:c r="L74" s="67"/>
     </x:row>
     <x:row r="83" spans="4:12">
-      <x:c r="D83" s="62"/>
-      <x:c r="E83" s="62"/>
+      <x:c r="D83" s="61"/>
+      <x:c r="E83" s="61"/>
       <x:c r="G83" s="31"/>
       <x:c r="H83" s="31"/>
       <x:c r="I83" s="32"/>
@@ -2839,7 +3158,7 @@
       <x:sortCondition descending="0" sortBy="value" ref="B1:B115"/>
     </x:sortState>
   </x:autoFilter>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="34" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>

--- a/테스트과목.xlsx
+++ b/테스트과목.xlsx
@@ -27,24 +27,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
-  <x:si>
-    <x:t>박민수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해독 작용</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="146">
+  <x:si>
+    <x:t>23, 20, 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과도한 감정적 자극</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 육미지황환
+② 귀비탕
+③ 십전대보탕
+④ 청심연자음
+⑤ 사물탕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 보중익기탕
+② 소요산
+③ 평위산
+④ 시호가용골모려탕
+⑤ 반하후박탕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 유전자 변이
+② 약물 상호작용
+③ 연령
+④ 성별
+⑤ 혈액형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24, 23, 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B형 간염 바이러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22, 21, 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18, 17, 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금주, 규칙적인 운동, 건강한 식습관 유지, 정기적인 건강 검진 등이 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간경변은 간세포의 손상과 섬유화로 인해 발생하며, 이로 인해 간의 기능이 저하됩니다.</x:t>
   </x:si>
   <x:si>
     <x:t>23, 20, 17</x:t>
   </x:si>
   <x:si>
-    <x:t>④</x:t>
-  </x:si>
-  <x:si>
-    <x:t>③</x:t>
-  </x:si>
-  <x:si>
-    <x:t>⑤</x:t>
+    <x:t>23, 22, 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22, 21, 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.2 기관지확장증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.7 흉막질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.10 폐수종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.18 진액과 한증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.17 성음질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.2 알레르기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 22, 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.16 언어질환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.11 효천증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.2 알레르기 ★</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.5 COPD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.4 천식 ★</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.17 성음질환 ★</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간의 주요 기능 중 하나를 쓰시오.</x:t>
   </x:si>
   <x:si>
     <x:t>간경변의 주요 원인이 아닌 것은?</x:t>
@@ -57,85 +135,19 @@
 ⑤ 비타민 D</x:t>
   </x:si>
   <x:si>
-    <x:t>간질환 예방을 위한 생활습관 개선 방안을 서술하시오.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22, 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음 중 간질환과 관련된 약물이 아닌 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약물의 대사 속도에 영향을 주지 않는 요인은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간질환의 일반적인 증상 중 옳지 않은 것은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23, 22, 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22, 21, 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23, 22, 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간경변은 간세포의 손상과 섬유화로 인해 발생하며, 이로 인해 간의 기능이 저하됩니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금주, 규칙적인 운동, 건강한 식습관 유지, 정기적인 건강 검진 등이 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.2 알레르기 ★</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.11 효천증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.2 기관지확장증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.16 언어질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.2 알레르기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.5 COPD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.18 진액과 한증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.4 천식 ★</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.17 성음질환 ★</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.7 흉막질환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.10 폐수종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.17 성음질환</x:t>
+    <x:t>4.9 간질성 폐질환 ★</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;족보 페이지 또는 해설&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>4.9 간질성 폐질환 ★</x:t>
-  </x:si>
-  <x:si>
     <x:t>p.7R(19 족보 기준)</x:t>
   </x:si>
   <x:si>
+    <x:t>4.1 급성 기도 감염</x:t>
+  </x:si>
+  <x:si>
     <x:t>4.3 폐렴 및 폐농양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1 급성 기도 감염</x:t>
   </x:si>
   <x:si>
     <x:t>① 개인적인 차이가 존재한다
@@ -145,145 +157,6 @@
 ⑤ 약물대사에 관여하는 미립효소는 선척적으로 결정되어 있다</x:t>
   </x:si>
   <x:si>
-    <x:t>중독성 간질환의 간접손상에 대한 설명으로 옳지 않은 것을 고르시오.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수님</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단답형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>②</x:t>
-  </x:si>
-  <x:si>
-    <x:t>★</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>객관식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3회차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김장훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서술형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검수용
-번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#FCE4D6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.8 감모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;문제&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중간고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.8 폐암</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.6 폐결핵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도 上</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1 폐병증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도 下</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;제시그림&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;출제 년도&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.10 천증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.9 해수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.4 담음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도 中</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.7 기병</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;답가지&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.2 폐상증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23, 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#E2EFDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#FFF2CC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기말고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;정답&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.4 천식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간암의 주요 원인 중 하나를 쓰시오.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간경변의 병리학적 기전을 설명하시오.</x:t>
-  </x:si>
-  <x:si>
     <x:t>① 알코올 중독
 ② 바이러스 감염
 ③ 약물 남용
@@ -291,7 +164,17 @@
 ⑤ 지방간</x:t>
   </x:si>
   <x:si>
-    <x:t>B형 간염 바이러스</x:t>
+    <x:t>중독성 간질환의 간접손상에 대한 설명으로 옳지 않은 것을 고르시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 소간산
+② 천마구등음
+③ 용담사간탕
+④ 반하사심탕
+⑤ 육미지황환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간질환 예방을 위한 생활습관 개선 방안을 서술하시오.</x:t>
   </x:si>
   <x:si>
     <x:t>① 피로
@@ -301,41 +184,348 @@
 ⑤ 황달</x:t>
   </x:si>
   <x:si>
-    <x:t>① 유전자 변이
-② 약물 상호작용
-③ 연령
-④ 성별
-⑤ 혈액형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간의 주요 기능 중 하나를 쓰시오.</x:t>
+    <x:t>지방간 → 알코올성 간염 → 간경변 순으로 진행됩니다.</x:t>
   </x:si>
   <x:si>
     <x:t>알코올성 간질환의 진행 과정을 단계별로 설명하시오.</x:t>
   </x:si>
   <x:si>
-    <x:t>지방간 → 알코올성 간염 → 간경변 순으로 진행됩니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24, 23, 22</x:t>
+    <x:t>5회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박민수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단답형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서술형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시험</x:t>
+  </x:si>
+  <x:si>
+    <x:t>③</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>②</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>④</x:t>
+  </x:si>
+  <x:si>
+    <x:t>★</x:t>
+  </x:si>
+  <x:si>
+    <x:t>객관식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3회차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>⑤</x:t>
   </x:si>
   <x:si>
     <x:t>이수정</x:t>
   </x:si>
   <x:si>
+    <x:t>김장훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신유형</x:t>
+  </x:si>
+  <x:si>
     <x:t>이지훈</x:t>
   </x:si>
   <x:si>
+    <x:t>교수님</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김영철</x:t>
+  </x:si>
+  <x:si>
     <x:t>장영희</x:t>
   </x:si>
   <x:si>
-    <x:t>김영철</x:t>
-  </x:si>
-  <x:si>
     <x:t>정수진</x:t>
   </x:si>
   <x:si>
+    <x:t>간과 관련된 병증은 주로 스트레스, 감정적 억압, 음식 섭취 불균형과 관련이 있으며, 진단은 설진, 맥진 등을 통해 이루어집니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;제시그림&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해독 작용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;문제&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중간고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.9 해수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도 中</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#FFF2CC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;정답&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22, 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.8 폐암</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.10 천증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.7 기병</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;답가지&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;출제 년도&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검수용
+번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#FCE4D6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도 上</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.2 폐상증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.8 감모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도 下</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#E2EFDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.6 폐결핵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.4 담음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1 폐병증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기말고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.4 천식</x:t>
+  </x:si>
+  <x:si>
     <x:t>23, 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간암의 주요 원인 중 하나를 쓰시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간경변의 병리학적 기전을 설명하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간기(肝氣)의 순환을 방해하는 요인이 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간풍(肝風)을 진정시키는 대표적인 한약 처방은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한의학에서 간을 보하는 약재로 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간질환의 일반적인 증상 중 옳지 않은 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약물의 대사 속도에 영향을 주지 않는 요인은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음 중 간질환과 관련된 약물이 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간비불화(肝脾不和) 증상에 적합한 한방 처방은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한의학에서 간열을 가라앉히기 위한 식이요법은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간기울결로 인한 소화기 증상에 사용되는 처방은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간기능 저하와 관련된 한의학적 증상이 아닌 것은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간화상염(肝火上炎) 증상에 사용되는 처방은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간울의 증상은 우울감, 가슴 답답함 등이 있으며, 주요 치료법은 소간리기(疏肝理氣)입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간은 기혈을 저장하고, 정신과 정서의 균형을 유지하며, 근육과 인대의 건강을 담당합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간보약과 침구 치료가 적합합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충분한 휴식과 따뜻한 음식 섭취</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간신음허(肝腎陰虛)에 적합한 한약 처방은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한의학에서 간의 기능을 돕는 운동법은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간기울결의 예방에 도움이 되는 활동은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간양상항(肝陽上亢) 증상의 주요 원인은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간장(肝臟)의 한의학적 기능을 설명하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차가운 성질의 음식 섭취</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22, 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22, 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24, 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18, 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23, 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>치자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>①</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간은 혈액의 순환을 조절하고, 피로와 정서적 균형을 유지합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간기능이 저하된 환자에게 적합한 한방 치료법을 제시하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간울(肝鬱) 증후군의 주요 증상과 한방 치료법을 설명하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간열(肝熱)을 진정시키는 주요 약재를 하나 쓰시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한의학에서 간기울결(肝氣鬱結) 치료 시 사용하는 침법은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한의학에서 간과 관련된 병증의 진단 기준을 설명하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간신양허(肝腎陽虛) 환자에게 추천되는 생활 습관은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한의학에서 간이 혈액을 조절하는 원리를 설명하시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 사법
+② 보법
+③ 자법
+④ 합곡
+⑤ 구법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 피로
+② 두통
+③ 변비
+④ 황달
+⑤ 어지러움</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 명상
+② 폭식
+③ 과로
+④ 늦은 수면
+⑤ 음주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 당귀
+② 숙지황
+③ 인삼
+④ 황기
+⑤ 감초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 스트레스
+② 운동 부족
+③ 충분한 수면
+④ 과식
+⑤ 흡연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 황련해독탕
+② 소시호탕
+③ 반하사심탕
+④ 시호가용골모려탕
+⑤ 백호탕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① 소건중탕
+② 반하백출천마탕
+③ 오령산
+④ 반하사심탕
+⑤ 보중익기탕</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1548,32 +1738,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1621,6 +1785,32 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1633,7 +1823,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1663,7 +1853,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14973300" y="22498050"/>
+          <a:off x="14973300" y="29813250"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1700,7 +1890,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14973300" y="24384000"/>
+          <a:off x="14973300" y="31699200"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2011,67 +2201,66 @@
   <x:dimension ref="B2:K50"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F7" activeCellId="0" sqref="F7:F7"/>
+      <x:selection activeCell="D26" activeCellId="0" sqref="D26:D26"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="17.39999999999999857891"/>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="3" max="7" width="30.59765625" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" ht="18"/>
-    <x:row r="2" spans="2:10" ht="18.60000000000000142109">
+    <x:row r="2" spans="2:10">
       <x:c r="B2" s="2"/>
       <x:c r="C2" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D2" s="35" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E2" s="35" t="s">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F2" s="35" t="s">
-        <x:v>41</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G2" s="36" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="I2" s="68" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="69"/>
-    </x:row>
-    <x:row r="3" spans="2:11" ht="18.60000000000000142109">
+      <x:c r="I2" s="72" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J2" s="73"/>
+    </x:row>
+    <x:row r="3" spans="2:11">
       <x:c r="B3" s="34">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="40" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D3" s="40" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E3" s="40" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F3" s="41" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G3" s="42" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I3" s="3">
         <x:v>90</x:v>
       </x:c>
       <x:c r="J3" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="2:11" ht="18.60000000000000142109">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:11">
       <x:c r="B4" s="34">
         <x:v>7</x:v>
       </x:c>
@@ -2079,7 +2268,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="40" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="41" t="s">
         <x:v>21</x:v>
@@ -2094,288 +2283,288 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="J4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:11" ht="19.19999999999999928946">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:11">
       <x:c r="B5" s="34">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="41" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D5" s="40" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E5" s="40" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="41" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G5" s="42" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I5" s="7">
         <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:7" ht="19.19999999999999928946">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:7">
       <x:c r="B6" s="34">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="40" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D6" s="41" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E6" s="41" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F6" s="41" t="s">
-        <x:v>69</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G6" s="44" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="2:9" ht="18.60000000000000142109">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:9">
       <x:c r="B7" s="34">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="40" t="s">
-        <x:v>63</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D7" s="40" t="s">
-        <x:v>73</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E7" s="41" t="s">
-        <x:v>63</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F7" s="41" t="s">
-        <x:v>73</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G7" s="44" t="s">
-        <x:v>73</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I7" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:9" ht="19.19999999999999928946">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:9">
       <x:c r="B8" s="34">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D8" s="41" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E8" s="40" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F8" s="40" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G8" s="45" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I8" s="10" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D8" s="41" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E8" s="40" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F8" s="40" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G8" s="45" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I8" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:7" ht="18.60000000000000142109">
+    </x:row>
+    <x:row r="9" spans="2:7">
       <x:c r="B9" s="34">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D9" s="43" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E9" s="40" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F9" s="41" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G9" s="42" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:7" ht="18.60000000000000142109">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:7">
       <x:c r="B10" s="34">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D10" s="41" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E10" s="43" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F10" s="41" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G10" s="44" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:7" ht="18.60000000000000142109">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:7">
       <x:c r="B11" s="34">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D11" s="43" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E11" s="41" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F11" s="40" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G11" s="42" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="2:7" ht="18.60000000000000142109">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:7">
       <x:c r="B12" s="34">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C12" s="41" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D12" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E12" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F12" s="43" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G12" s="42" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:7" ht="18.60000000000000142109">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:7">
       <x:c r="B13" s="34">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="40" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D13" s="41" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E13" s="41" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F13" s="43" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G13" s="44" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:7" ht="18.60000000000000142109">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:7">
       <x:c r="B14" s="34">
         <x:v>61</x:v>
       </x:c>
       <x:c r="C14" s="43" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D14" s="40" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="41" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="40" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G14" s="42" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:7" ht="18.60000000000000142109">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:7">
       <x:c r="B15" s="34">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C15" s="41" t="s">
-        <x:v>79</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D15" s="40" t="s">
-        <x:v>79</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E15" s="40" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F15" s="41" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G15" s="44" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="16" spans="2:7">
       <x:c r="B16" s="34">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C16" s="40" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D16" s="41" t="s">
-        <x:v>61</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E16" s="43" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F16" s="43" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G16" s="44" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:7" ht="19.19999999999999928946">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:7">
       <x:c r="B17" s="37">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C17" s="46" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D17" s="47" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E17" s="46" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F17" s="46" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G17" s="54" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:7" ht="18.60000000000000142109">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:7">
       <x:c r="B18" s="38"/>
       <x:c r="C18" s="39"/>
       <x:c r="D18" s="39"/>
@@ -2383,7 +2572,7 @@
       <x:c r="F18" s="39"/>
       <x:c r="G18" s="39"/>
     </x:row>
-    <x:row r="19" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="19" spans="2:7">
       <x:c r="B19" s="38"/>
       <x:c r="C19" s="39"/>
       <x:c r="D19" s="39"/>
@@ -2391,7 +2580,7 @@
       <x:c r="F19" s="39"/>
       <x:c r="G19" s="39"/>
     </x:row>
-    <x:row r="20" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="20" spans="2:7">
       <x:c r="B20" s="38"/>
       <x:c r="C20" s="39"/>
       <x:c r="D20" s="39"/>
@@ -2399,7 +2588,7 @@
       <x:c r="F20" s="39"/>
       <x:c r="G20" s="39"/>
     </x:row>
-    <x:row r="21" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="21" spans="2:7">
       <x:c r="B21" s="38"/>
       <x:c r="C21" s="39"/>
       <x:c r="D21" s="39"/>
@@ -2407,7 +2596,7 @@
       <x:c r="F21" s="39"/>
       <x:c r="G21" s="39"/>
     </x:row>
-    <x:row r="22" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="22" spans="2:7">
       <x:c r="B22" s="38"/>
       <x:c r="C22" s="39"/>
       <x:c r="D22" s="39"/>
@@ -2415,7 +2604,7 @@
       <x:c r="F22" s="39"/>
       <x:c r="G22" s="39"/>
     </x:row>
-    <x:row r="23" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="23" spans="2:7">
       <x:c r="B23" s="38"/>
       <x:c r="C23" s="39"/>
       <x:c r="D23" s="39"/>
@@ -2423,7 +2612,7 @@
       <x:c r="F23" s="39"/>
       <x:c r="G23" s="39"/>
     </x:row>
-    <x:row r="24" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="24" spans="2:7">
       <x:c r="B24" s="38"/>
       <x:c r="C24" s="39"/>
       <x:c r="D24" s="39"/>
@@ -2431,7 +2620,7 @@
       <x:c r="F24" s="39"/>
       <x:c r="G24" s="39"/>
     </x:row>
-    <x:row r="25" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="25" spans="2:7">
       <x:c r="B25" s="38"/>
       <x:c r="C25" s="39"/>
       <x:c r="D25" s="39"/>
@@ -2439,7 +2628,7 @@
       <x:c r="F25" s="39"/>
       <x:c r="G25" s="39"/>
     </x:row>
-    <x:row r="26" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="26" spans="2:7">
       <x:c r="B26" s="38"/>
       <x:c r="C26" s="39"/>
       <x:c r="D26" s="39"/>
@@ -2447,7 +2636,7 @@
       <x:c r="F26" s="39"/>
       <x:c r="G26" s="39"/>
     </x:row>
-    <x:row r="27" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="27" spans="2:7">
       <x:c r="B27" s="38"/>
       <x:c r="C27" s="39"/>
       <x:c r="D27" s="39"/>
@@ -2455,7 +2644,7 @@
       <x:c r="F27" s="39"/>
       <x:c r="G27" s="39"/>
     </x:row>
-    <x:row r="28" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="28" spans="2:7">
       <x:c r="B28" s="38"/>
       <x:c r="C28" s="39"/>
       <x:c r="D28" s="39"/>
@@ -2463,7 +2652,7 @@
       <x:c r="F28" s="39"/>
       <x:c r="G28" s="39"/>
     </x:row>
-    <x:row r="29" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="29" spans="2:7">
       <x:c r="B29" s="38"/>
       <x:c r="C29" s="39"/>
       <x:c r="D29" s="39"/>
@@ -2471,7 +2660,7 @@
       <x:c r="F29" s="39"/>
       <x:c r="G29" s="39"/>
     </x:row>
-    <x:row r="30" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="30" spans="2:7">
       <x:c r="B30" s="38"/>
       <x:c r="C30" s="39"/>
       <x:c r="D30" s="39"/>
@@ -2479,7 +2668,7 @@
       <x:c r="F30" s="39"/>
       <x:c r="G30" s="39"/>
     </x:row>
-    <x:row r="31" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="31" spans="2:7">
       <x:c r="B31" s="38"/>
       <x:c r="C31" s="39"/>
       <x:c r="D31" s="39"/>
@@ -2487,7 +2676,7 @@
       <x:c r="F31" s="39"/>
       <x:c r="G31" s="39"/>
     </x:row>
-    <x:row r="32" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="32" spans="2:7">
       <x:c r="B32" s="38"/>
       <x:c r="C32" s="39"/>
       <x:c r="D32" s="39"/>
@@ -2495,7 +2684,7 @@
       <x:c r="F32" s="39"/>
       <x:c r="G32" s="39"/>
     </x:row>
-    <x:row r="33" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="33" spans="2:7">
       <x:c r="B33" s="38"/>
       <x:c r="C33" s="39"/>
       <x:c r="D33" s="39"/>
@@ -2503,7 +2692,7 @@
       <x:c r="F33" s="39"/>
       <x:c r="G33" s="39"/>
     </x:row>
-    <x:row r="34" spans="2:7" ht="18.60000000000000142109">
+    <x:row r="34" spans="2:7">
       <x:c r="B34" s="38"/>
       <x:c r="C34" s="39"/>
       <x:c r="D34" s="39"/>
@@ -2511,52 +2700,52 @@
       <x:c r="F34" s="39"/>
       <x:c r="G34" s="39"/>
     </x:row>
-    <x:row r="35" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="35" spans="2:2">
       <x:c r="B35" s="38"/>
     </x:row>
-    <x:row r="36" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="36" spans="2:2">
       <x:c r="B36" s="38"/>
     </x:row>
-    <x:row r="37" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="37" spans="2:2">
       <x:c r="B37" s="38"/>
     </x:row>
-    <x:row r="38" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="38" spans="2:2">
       <x:c r="B38" s="38"/>
     </x:row>
-    <x:row r="39" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="39" spans="2:2">
       <x:c r="B39" s="38"/>
     </x:row>
-    <x:row r="40" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="40" spans="2:2">
       <x:c r="B40" s="38"/>
     </x:row>
-    <x:row r="41" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="41" spans="2:2">
       <x:c r="B41" s="38"/>
     </x:row>
-    <x:row r="42" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="42" spans="2:2">
       <x:c r="B42" s="38"/>
     </x:row>
-    <x:row r="43" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="43" spans="2:2">
       <x:c r="B43" s="38"/>
     </x:row>
-    <x:row r="44" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="44" spans="2:2">
       <x:c r="B44" s="38"/>
     </x:row>
-    <x:row r="45" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="45" spans="2:2">
       <x:c r="B45" s="38"/>
     </x:row>
-    <x:row r="46" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="46" spans="2:2">
       <x:c r="B46" s="38"/>
     </x:row>
-    <x:row r="47" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="47" spans="2:2">
       <x:c r="B47" s="38"/>
     </x:row>
-    <x:row r="48" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="48" spans="2:2">
       <x:c r="B48" s="38"/>
     </x:row>
-    <x:row r="49" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="49" spans="2:2">
       <x:c r="B49" s="38"/>
     </x:row>
-    <x:row r="50" spans="2:2" ht="18.60000000000000142109">
+    <x:row r="50" spans="2:2">
       <x:c r="B50" s="38"/>
     </x:row>
   </x:sheetData>
@@ -2576,8 +2765,8 @@
   <x:dimension ref="A1:M1216"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <x:selection pane="topRight" activeCell="R5" activeCellId="0" sqref="R5:R5"/>
+      <x:pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <x:selection pane="topRight" activeCell="G6" activeCellId="0" sqref="G6:G6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -2599,39 +2788,39 @@
   <x:sheetData>
     <x:row r="1" spans="1:13" ht="44.54999999999999715783" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B1" s="14" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C1" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D1" s="17" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E1" s="17" t="s">
-        <x:v>66</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F1" s="15" t="s">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G1" s="16" t="s">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H1" s="58"/>
       <x:c r="I1" s="58"/>
       <x:c r="J1" s="49" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K1" s="17" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="L1" s="49" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M1" s="56" t="s">
-        <x:v>55</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13" ht="59.75">
@@ -2639,19 +2828,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="33" t="s">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C2" s="62" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D2" s="59" t="s">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E2" s="59" t="s">
-        <x:v>74</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F2" s="25" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G2" s="26" t="s">
         <x:v>35</x:v>
@@ -2659,14 +2848,14 @@
       <x:c r="H2" s="26"/>
       <x:c r="I2" s="27"/>
       <x:c r="J2" s="19"/>
-      <x:c r="K2" s="70" t="s">
-        <x:v>46</x:v>
+      <x:c r="K2" s="68" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="M2" s="57" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" ht="23.89999999999999857891">
@@ -2674,32 +2863,32 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="33" t="s">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C3" s="62" t="s">
-        <x:v>54</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D3" s="59" t="s">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E3" s="59" t="s">
-        <x:v>9</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F3" s="25" t="s">
-        <x:v>87</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G3" s="26"/>
       <x:c r="H3" s="19"/>
       <x:c r="I3" s="18" t="s">
-        <x:v>88</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J3" s="19"/>
-      <x:c r="K3" s="71" t="s">
-        <x:v>88</x:v>
+      <x:c r="K3" s="69" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L3" s="19"/>
       <x:c r="M3" s="57" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -2707,32 +2896,32 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="33" t="s">
-        <x:v>77</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C4" s="62" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D4" s="59" t="s">
-        <x:v>90</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E4" s="59" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F4" s="25" t="s">
-        <x:v>86</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="26"/>
       <x:c r="H4" s="19"/>
       <x:c r="I4" s="18" t="s">
-        <x:v>1</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J4" s="19"/>
-      <x:c r="K4" s="71" t="s">
-        <x:v>1</x:v>
+      <x:c r="K4" s="69" t="s">
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L4" s="19"/>
       <x:c r="M4" s="57" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:13" ht="59.75">
@@ -2740,32 +2929,32 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="33" t="s">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C5" s="63" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D5" s="60" t="s">
-        <x:v>90</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E5" s="60" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F5" s="28" t="s">
-        <x:v>12</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G5" s="29" t="s">
-        <x:v>84</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="30" t="s">
-        <x:v>4</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J5" s="23"/>
-      <x:c r="K5" s="72" t="s">
-        <x:v>4</x:v>
+      <x:c r="K5" s="70" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M5" s="57" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:13" ht="59.75">
@@ -2773,32 +2962,32 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="33" t="s">
-        <x:v>77</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C6" s="63" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D6" s="60" t="s">
-        <x:v>92</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E6" s="60" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="28" t="s">
-        <x:v>6</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G6" s="29" t="s">
-        <x:v>82</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I6" s="30" t="s">
-        <x:v>3</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J6" s="23"/>
-      <x:c r="K6" s="73" t="s">
-        <x:v>3</x:v>
+      <x:c r="K6" s="71" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M6" s="57" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:13" ht="59.75">
@@ -2806,32 +2995,32 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="33" t="s">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C7" s="63" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D7" s="60" t="s">
-        <x:v>93</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E7" s="60">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F7" s="28" t="s">
-        <x:v>11</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G7" s="29" t="s">
-        <x:v>85</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I7" s="30" t="s">
-        <x:v>5</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J7" s="23"/>
-      <x:c r="K7" s="73" t="s">
-        <x:v>5</x:v>
+      <x:c r="K7" s="71" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M7" s="57" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:13" ht="59.75">
@@ -2839,32 +3028,32 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="33" t="s">
-        <x:v>77</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C8" s="63" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D8" s="60" t="s">
-        <x:v>94</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E8" s="60">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="28" t="s">
-        <x:v>10</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G8" s="29" t="s">
-        <x:v>7</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I8" s="30" t="s">
-        <x:v>5</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J8" s="50"/>
-      <x:c r="K8" s="73" t="s">
-        <x:v>5</x:v>
+      <x:c r="K8" s="71" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M8" s="57" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:13" ht="47.79999999999999715783">
@@ -2872,29 +3061,29 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="33" t="s">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C9" s="63" t="s">
-        <x:v>54</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D9" s="60" t="s">
-        <x:v>91</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E9" s="60" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="28" t="s">
-        <x:v>81</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="30" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J9" s="50"/>
-      <x:c r="K9" s="73" t="s">
-        <x:v>16</x:v>
+      <x:c r="K9" s="71" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M9" s="57" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:13" ht="35.85000000000000142109">
@@ -2902,118 +3091,676 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="33" t="s">
-        <x:v>77</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C10" s="63" t="s">
-        <x:v>54</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D10" s="60" t="s">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E10" s="60" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="28" t="s">
-        <x:v>8</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I10" s="30" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J10" s="50"/>
-      <x:c r="K10" s="73" t="s">
-        <x:v>17</x:v>
+      <x:c r="K10" s="71" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M10" s="57" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:11">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
       <x:c r="A11" s="11">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="33" t="s">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C11" s="63" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D11" s="60" t="s">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E11" s="60" t="s">
-        <x:v>89</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F11" s="28" t="s">
-        <x:v>80</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I11" s="30" t="s">
-        <x:v>83</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J11" s="50"/>
-      <x:c r="K11" s="73" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="11"/>
+      <x:c r="K11" s="71" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="M11" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13" ht="59.75">
+      <x:c r="A12" s="11">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C12" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D12" s="60" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E12" s="60" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F12" s="28" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G12" s="29" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="I12" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
       <x:c r="J12" s="50"/>
-    </x:row>
-    <x:row r="13" spans="1:1">
-      <x:c r="A13" s="11"/>
-    </x:row>
-    <x:row r="14" spans="1:1">
-      <x:c r="A14" s="11"/>
-    </x:row>
-    <x:row r="15" spans="1:1">
-      <x:c r="A15" s="11"/>
-    </x:row>
-    <x:row r="16" spans="1:1">
-      <x:c r="A16" s="11"/>
-    </x:row>
-    <x:row r="17" spans="1:12">
-      <x:c r="A17" s="11"/>
+      <x:c r="K12" s="71" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M12" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="11">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C13" s="63" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D13" s="60" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E13" s="60" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F13" s="28" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I13" s="30" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="K13" s="71" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="M13" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13" ht="47.79999999999999715783">
+      <x:c r="A14" s="11">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C14" s="63" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D14" s="60" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E14" s="60" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F14" s="28" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="I14" s="30" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K14" s="71" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="M14" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13" ht="59.75">
+      <x:c r="A15" s="11">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C15" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D15" s="60" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E15" s="60" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F15" s="28" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G15" s="29" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="I15" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="K15" s="71" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M15" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13" ht="59.75">
+      <x:c r="A16" s="11">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C16" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D16" s="60" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E16" s="60" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="F16" s="28" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G16" s="29" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I16" s="30" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K16" s="71" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="M16" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13" ht="47.79999999999999715783">
+      <x:c r="A17" s="11">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B17" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C17" s="63" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D17" s="60" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E17" s="60" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F17" s="28" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="I17" s="30" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="K17" s="71" t="s">
+        <x:v>113</x:v>
+      </x:c>
       <x:c r="L17" s="66"/>
-    </x:row>
-    <x:row r="18" spans="1:1">
-      <x:c r="A18" s="11"/>
-    </x:row>
-    <x:row r="19" spans="1:1">
-      <x:c r="A19" s="11"/>
-    </x:row>
-    <x:row r="20" spans="1:1">
-      <x:c r="A20" s="11"/>
-    </x:row>
-    <x:row r="21" spans="1:1">
-      <x:c r="A21" s="11"/>
-    </x:row>
-    <x:row r="22" spans="1:1">
-      <x:c r="A22" s="11"/>
-    </x:row>
-    <x:row r="23" spans="1:1">
-      <x:c r="A23" s="11"/>
-    </x:row>
-    <x:row r="24" spans="1:1">
-      <x:c r="A24" s="11"/>
-    </x:row>
-    <x:row r="25" spans="1:1">
-      <x:c r="A25" s="11"/>
-    </x:row>
-    <x:row r="26" spans="1:1">
-      <x:c r="A26" s="11"/>
-    </x:row>
-    <x:row r="28" spans="10:10">
+      <x:c r="M17" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="A18" s="11">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B18" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C18" s="63" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D18" s="60" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E18" s="60" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F18" s="28" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I18" s="30" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K18" s="71" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M18" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:13" ht="59.75">
+      <x:c r="A19" s="11">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B19" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C19" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D19" s="60" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E19" s="60" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F19" s="28" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G19" s="29" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="I19" s="30" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="K19" s="71" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="M19" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:13" ht="59.75">
+      <x:c r="A20" s="11">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B20" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C20" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D20" s="60" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E20" s="60" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F20" s="28" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G20" s="29" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I20" s="30" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="K20" s="71" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="M20" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:13" ht="59.75">
+      <x:c r="A21" s="11">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C21" s="63" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D21" s="60" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E21" s="60" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F21" s="28" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I21" s="30" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K21" s="71" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="M21" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:13" ht="59.75">
+      <x:c r="A22" s="11">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C22" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D22" s="60" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E22" s="60" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F22" s="28" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G22" s="29" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I22" s="30" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K22" s="71" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="M22" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="A23" s="11">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B23" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C23" s="63" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D23" s="60" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E23" s="60" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F23" s="28" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I23" s="30" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="K23" s="71" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="M23" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:13" ht="59.75">
+      <x:c r="A24" s="11">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B24" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C24" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D24" s="60" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E24" s="60" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F24" s="28" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G24" s="29" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="I24" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="K24" s="71" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M24" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:13" ht="23.89999999999999857891">
+      <x:c r="A25" s="11">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B25" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C25" s="63" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D25" s="60" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E25" s="60" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F25" s="28" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="I25" s="30" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="K25" s="71" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="M25" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="A26" s="11">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C26" s="63" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D26" s="60" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E26" s="60" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F26" s="28" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="I26" s="30" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="K26" s="71" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="M26" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:13" ht="59.75">
+      <x:c r="A27" s="11">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B27" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C27" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D27" s="60" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E27" s="60" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F27" s="28" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G27" s="29" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="I27" s="30" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="K27" s="71" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="M27" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:13" ht="59.75">
+      <x:c r="A28" s="11">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B28" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C28" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D28" s="60" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E28" s="60" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F28" s="28" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G28" s="29" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="I28" s="30" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="J28" s="50"/>
-    </x:row>
-    <x:row r="29" spans="10:10">
+      <x:c r="K28" s="71" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="M28" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:13" ht="23.89999999999999857891">
+      <x:c r="A29" s="11">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B29" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C29" s="63" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D29" s="60" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E29" s="60" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F29" s="28" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="I29" s="30" t="s">
+        <x:v>115</x:v>
+      </x:c>
       <x:c r="J29" s="50"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="11"/>
+      <x:c r="K29" s="71" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="M29" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:13" ht="59.75">
+      <x:c r="A30" s="11">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B30" s="33" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C30" s="63" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D30" s="60" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E30" s="60" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F30" s="28" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="G30" s="29" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="I30" s="30" t="s">
+        <x:v>130</x:v>
+      </x:c>
       <x:c r="J30" s="50"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="11"/>
+      <x:c r="K30" s="71" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="M30" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:13" ht="35.85000000000000142109">
+      <x:c r="A31" s="11">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B31" s="33" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C31" s="63" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D31" s="60" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E31" s="60" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F31" s="28" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="I31" s="30" t="s">
+        <x:v>131</x:v>
+      </x:c>
       <x:c r="J31" s="50"/>
+      <x:c r="K31" s="71" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="M31" s="57" t="s">
+        <x:v>63</x:v>
+      </x:c>
     </x:row>
     <x:row r="32" spans="10:10">
       <x:c r="J32" s="50"/>
